--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/44.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/44.xlsx
@@ -479,13 +479,13 @@
         <v>-13.86411576205349</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.195748199204964</v>
+        <v>-9.145958171497881</v>
       </c>
       <c r="F2" t="n">
-        <v>5.178160167697668</v>
+        <v>5.169021740314144</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.75173193950213</v>
+        <v>-15.86964121889472</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.31722564581441</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.581525994739264</v>
+        <v>-9.560264094924301</v>
       </c>
       <c r="F3" t="n">
-        <v>5.05590424376163</v>
+        <v>5.035506435934221</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.27659917707305</v>
+        <v>-15.3863388594924</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.53941139934547</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.670566746365843</v>
+        <v>-9.653101614374981</v>
       </c>
       <c r="F4" t="n">
-        <v>5.234326146888673</v>
+        <v>5.222045566823135</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.56039784241927</v>
+        <v>-14.67341060054905</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.62166906558467</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.58659589929289</v>
+        <v>-10.56738949102408</v>
       </c>
       <c r="F5" t="n">
-        <v>5.293581909550325</v>
+        <v>5.286878650495362</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.73439136383193</v>
+        <v>-13.8676710067607</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.58917299280654</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.17127195959869</v>
+        <v>-11.14665843025625</v>
       </c>
       <c r="F6" t="n">
-        <v>5.530997729282186</v>
+        <v>5.54278080183974</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.95285943799794</v>
+        <v>-13.05270133946894</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.507120875161077</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.92129071249266</v>
+        <v>-11.89285423072043</v>
       </c>
       <c r="F7" t="n">
-        <v>5.826962327322246</v>
+        <v>5.837593277229727</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.76638258526935</v>
+        <v>-11.88128063500834</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.411289849359903</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.70688125220759</v>
+        <v>-12.67404575668054</v>
       </c>
       <c r="F8" t="n">
-        <v>6.057439226547991</v>
+        <v>6.062388117022164</v>
       </c>
       <c r="G8" t="n">
-        <v>-11.10578426078438</v>
+        <v>-11.22339241721161</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.335719863301061</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.39260370584583</v>
+        <v>-13.34204123227109</v>
       </c>
       <c r="F9" t="n">
-        <v>6.127980554259212</v>
+        <v>6.135835935964247</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.04038502473608</v>
+        <v>-10.16095204160554</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.297614698048209</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.40380080812939</v>
+        <v>-14.35034493562662</v>
       </c>
       <c r="F10" t="n">
-        <v>6.30765931845906</v>
+        <v>6.31349848552647</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.472650404307471</v>
+        <v>-9.603010463702537</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.296461579478076</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.33124644913442</v>
+        <v>-15.29566157001061</v>
       </c>
       <c r="F11" t="n">
-        <v>6.523368100079339</v>
+        <v>6.529312005569483</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.776048247007752</v>
+        <v>-8.91134410457415</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.33430241836434</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.4858435444434</v>
+        <v>-16.43833157743078</v>
       </c>
       <c r="F12" t="n">
-        <v>6.485400421838333</v>
+        <v>6.490742081397757</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.366704306358345</v>
+        <v>-8.499695918624598</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.393540945954697</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.34829899414211</v>
+        <v>-17.29032627715894</v>
       </c>
       <c r="F13" t="n">
-        <v>6.32381522016575</v>
+        <v>6.316090761489131</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.997409720101778</v>
+        <v>-8.099005990153572</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.476264800274796</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.63058531906644</v>
+        <v>-18.55802777671759</v>
       </c>
       <c r="F14" t="n">
-        <v>6.419860353812652</v>
+        <v>6.424625952047041</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.13842373065613</v>
+        <v>-7.237990693767457</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.571647495716749</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.66464158211165</v>
+        <v>-19.58738390304262</v>
       </c>
       <c r="F15" t="n">
-        <v>6.356048469762079</v>
+        <v>6.340416260169059</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.661078369046797</v>
+        <v>-6.762373516133232</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.684276696079483</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.62282795018905</v>
+        <v>-20.55529785213143</v>
       </c>
       <c r="F16" t="n">
-        <v>6.293126862304744</v>
+        <v>6.266025795422371</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.080408553410563</v>
+        <v>-6.180800331600919</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1848876107123819</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.61006613827225</v>
+        <v>-21.52617066166247</v>
       </c>
       <c r="F17" t="n">
-        <v>6.584744815801351</v>
+        <v>6.556989133776892</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.049536903309773</v>
+        <v>-6.133235995376928</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.02876131283716</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.42961811155862</v>
+        <v>-22.33657111526247</v>
       </c>
       <c r="F18" t="n">
-        <v>6.909721956938675</v>
+        <v>6.871178217372633</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.550602334314434</v>
+        <v>-5.647995975154035</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.835817628561722</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.04549312953625</v>
+        <v>-22.94425035166119</v>
       </c>
       <c r="F19" t="n">
-        <v>7.220952180092187</v>
+        <v>7.187278777183268</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.680605718178895</v>
+        <v>-4.755009275228424</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.59562867208138</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.92342368119388</v>
+        <v>-23.81834485858618</v>
       </c>
       <c r="F20" t="n">
-        <v>7.410738202085848</v>
+        <v>7.366067264789879</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.132234613653199</v>
+        <v>-4.188452962055571</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.288041898164684</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.19451290383466</v>
+        <v>-24.10994971977995</v>
       </c>
       <c r="F21" t="n">
-        <v>7.296835167362832</v>
+        <v>7.259914873349164</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.039226894265577</v>
+        <v>-4.077260034020791</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.899404763504922</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.87728958933351</v>
+        <v>-24.79120769814917</v>
       </c>
       <c r="F22" t="n">
-        <v>7.674521919740945</v>
+        <v>7.635218826610084</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.317739452617616</v>
+        <v>-4.347537533885384</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>4.410264690249472</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.08256380558894</v>
+        <v>-25.01529555358815</v>
       </c>
       <c r="F23" t="n">
-        <v>7.381961320439734</v>
+        <v>7.337395121566499</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.177285227731578</v>
+        <v>-4.205342032721397</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.811747679548633</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.48317518024291</v>
+        <v>-25.40989756123777</v>
       </c>
       <c r="F24" t="n">
-        <v>7.350880193493476</v>
+        <v>7.294871321936572</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.998706216970435</v>
+        <v>-4.015228703156693</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>5.095323216590791</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.60558821181305</v>
+        <v>-25.53409114599438</v>
       </c>
       <c r="F25" t="n">
-        <v>7.450512618119012</v>
+        <v>7.379604705928224</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.907492143072129</v>
+        <v>-3.927261520363136</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>5.264595375071834</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.93946811888275</v>
+        <v>-25.88101098669444</v>
       </c>
       <c r="F26" t="n">
-        <v>7.3635011734329</v>
+        <v>7.293300245595566</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.70498040271631</v>
+        <v>-3.722327703981597</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.327016392390005</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.85249595110516</v>
+        <v>-25.78356497664348</v>
       </c>
       <c r="F27" t="n">
-        <v>7.332132015824125</v>
+        <v>7.269262777578156</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.765820334021811</v>
+        <v>-3.775128961342279</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>5.299026726369998</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.82834065236218</v>
+        <v>-25.7735624572724</v>
       </c>
       <c r="F28" t="n">
-        <v>7.162272478755571</v>
+        <v>7.094716196092264</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.958565216457703</v>
+        <v>-3.978845193559536</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>5.200001927394509</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.81465919589257</v>
+        <v>-25.78263542314171</v>
       </c>
       <c r="F29" t="n">
-        <v>7.120743694141615</v>
+        <v>7.060623839492409</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.730850793131561</v>
+        <v>-3.728310886380266</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.052403034677977</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.66172800639837</v>
+        <v>-25.61708325370809</v>
       </c>
       <c r="F30" t="n">
-        <v>7.222156671953626</v>
+        <v>7.171175244687944</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.908945388687561</v>
+        <v>-3.917599400865942</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>4.879649921591107</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.30349641604306</v>
+        <v>-25.24537968372864</v>
       </c>
       <c r="F31" t="n">
-        <v>7.058790917094568</v>
+        <v>6.999430416010182</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.248088401499633</v>
+        <v>-4.255446275696683</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>4.69879144126033</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.90199476479585</v>
+        <v>-24.845815693302</v>
       </c>
       <c r="F32" t="n">
-        <v>7.146195130865931</v>
+        <v>7.076622633564999</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.20991124641316</v>
+        <v>-4.213472352786109</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>4.52701398938496</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.73663897990485</v>
+        <v>-24.68417812241805</v>
       </c>
       <c r="F33" t="n">
-        <v>7.117863387516436</v>
+        <v>7.040592616144568</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.355733315464304</v>
+        <v>-4.370710909915239</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.367924526526733</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.31271021388976</v>
+        <v>-24.25438400472987</v>
       </c>
       <c r="F34" t="n">
-        <v>7.2202975649501</v>
+        <v>7.144336023862406</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.398086915157289</v>
+        <v>-4.411061387273439</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>4.225270889074381</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.19755031809394</v>
+        <v>-24.15454210325887</v>
       </c>
       <c r="F35" t="n">
-        <v>7.118910771743774</v>
+        <v>7.044991629899389</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.558127225094548</v>
+        <v>-4.571311174056166</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>4.089167297197159</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.80246389523917</v>
+        <v>-23.74826176147442</v>
       </c>
       <c r="F36" t="n">
-        <v>7.25253081454643</v>
+        <v>7.186467054407081</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.543267461369189</v>
+        <v>-4.568443959733828</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>3.953080033042313</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.26728983197793</v>
+        <v>-23.22792127733286</v>
       </c>
       <c r="F37" t="n">
-        <v>7.229226515488158</v>
+        <v>7.164498170238664</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.661582602149867</v>
+        <v>-4.692480436856341</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>3.802459224579906</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.73563759818112</v>
+        <v>-22.6832945714199</v>
       </c>
       <c r="F38" t="n">
-        <v>7.146483161528449</v>
+        <v>7.070757281891906</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.575186495697317</v>
+        <v>-4.57657427979854</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>3.62616208791416</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.53821876363073</v>
+        <v>-22.4880359668384</v>
       </c>
       <c r="F39" t="n">
-        <v>7.332498600303693</v>
+        <v>7.264680471583552</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.734100867590188</v>
+        <v>-4.721990487461591</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>3.415816990305975</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.83635350058864</v>
+        <v>-21.78004350606638</v>
       </c>
       <c r="F40" t="n">
-        <v>7.5655677754921</v>
+        <v>7.491727187464766</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.729858961469469</v>
+        <v>-4.725054086326555</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>3.165989221050338</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.19404512317356</v>
+        <v>-21.14363975723291</v>
       </c>
       <c r="F41" t="n">
-        <v>7.570359558332172</v>
+        <v>7.500577584185772</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.743789171693066</v>
+        <v>-4.73935088102972</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.878481510937959</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.46701645406967</v>
+        <v>-20.41163601304917</v>
       </c>
       <c r="F42" t="n">
-        <v>7.619298586354544</v>
+        <v>7.562582730444187</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.088758259269706</v>
+        <v>-5.093104903813159</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.553647297765254</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.69625949347441</v>
+        <v>-19.64472818948938</v>
       </c>
       <c r="F43" t="n">
-        <v>7.71597215053785</v>
+        <v>7.659779986741161</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.238586572990418</v>
+        <v>-5.240589695325203</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.199294952666909</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.97980940506664</v>
+        <v>-18.91442644467506</v>
       </c>
       <c r="F44" t="n">
-        <v>7.554596425710734</v>
+        <v>7.515712286270808</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.07332243421931</v>
+        <v>-5.077695263368447</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.819013325112034</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.55948102233302</v>
+        <v>-18.52400088163195</v>
       </c>
       <c r="F45" t="n">
-        <v>7.566484236691021</v>
+        <v>7.526055205515771</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.315765698242394</v>
+        <v>-5.351088731309371</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.422509317889852</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.83051469240856</v>
+        <v>-17.77309185214475</v>
       </c>
       <c r="F46" t="n">
-        <v>7.717647965301591</v>
+        <v>7.69625514245821</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.45947990653602</v>
+        <v>-5.501624029383537</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.01580878423955</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.65354603489695</v>
+        <v>-17.59029711986857</v>
       </c>
       <c r="F47" t="n">
-        <v>7.573423157197136</v>
+        <v>7.538807108483613</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.744302954857772</v>
+        <v>-5.78077811057482</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6070748461162608</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.04423026064302</v>
+        <v>-16.99154683400791</v>
       </c>
       <c r="F48" t="n">
-        <v>7.55077347328095</v>
+        <v>7.527024035926059</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.833919767809387</v>
+        <v>-5.868012124409241</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2015463112035867</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.20879732400963</v>
+        <v>-16.15217311421917</v>
       </c>
       <c r="F49" t="n">
-        <v>7.50518607478606</v>
+        <v>7.477823161846852</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.115914878717324</v>
+        <v>-6.176689348508616</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1959754749582994</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.64526533279322</v>
+        <v>-15.58614049315998</v>
       </c>
       <c r="F50" t="n">
-        <v>7.252818845208949</v>
+        <v>7.225639224509525</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.332553213839366</v>
+        <v>-6.388850116058787</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.5798857433029704</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.92565999940059</v>
+        <v>-14.86440111440415</v>
       </c>
       <c r="F51" t="n">
-        <v>7.131610305500248</v>
+        <v>7.110557882530752</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.292962090045986</v>
+        <v>-6.343629302043466</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.9484670982939329</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.28201620709565</v>
+        <v>-14.21463012436929</v>
       </c>
       <c r="F52" t="n">
-        <v>7.030459173745073</v>
+        <v>7.013255887811045</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.532079909147271</v>
+        <v>-6.603249667394894</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.296697857418191</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.78873751292794</v>
+        <v>-13.72733461260024</v>
       </c>
       <c r="F53" t="n">
-        <v>7.053737288197662</v>
+        <v>7.035460433430612</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.572364924991262</v>
+        <v>-6.637132547149281</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.624666412988748</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.30263340071749</v>
+        <v>-13.22754904392019</v>
       </c>
       <c r="F54" t="n">
-        <v>6.830565893957599</v>
+        <v>6.810508486004075</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.781684662824778</v>
+        <v>-6.843755270597401</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.928366312935187</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.7029011921437</v>
+        <v>-12.62174200682784</v>
       </c>
       <c r="F55" t="n">
-        <v>6.841615797556016</v>
+        <v>6.829989832632563</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.080032059982032</v>
+        <v>-7.14396177475818</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.209003216584461</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.44115987373191</v>
+        <v>-12.36577439396926</v>
       </c>
       <c r="F56" t="n">
-        <v>6.846067180522203</v>
+        <v>6.823705527268535</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.072242139791205</v>
+        <v>-7.144603297597425</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.463754501975633</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.00522546601096</v>
+        <v>-11.93541730725888</v>
       </c>
       <c r="F57" t="n">
-        <v>6.522949146388403</v>
+        <v>6.501949092630275</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.327149276119611</v>
+        <v>-7.410835275883924</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.693062308344726</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.58530294466544</v>
+        <v>-11.52243370641947</v>
       </c>
       <c r="F58" t="n">
-        <v>6.660392141620844</v>
+        <v>6.645466916381276</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.994385398145338</v>
+        <v>-8.06516238730771</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.895693205031786</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.48984696464641</v>
+        <v>-11.42369155838717</v>
       </c>
       <c r="F59" t="n">
-        <v>6.515093764683368</v>
+        <v>6.492575003795599</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.042591257208574</v>
+        <v>-8.109846416906521</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.071775329603799</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.2335258596111</v>
+        <v>-11.15422578129877</v>
       </c>
       <c r="F60" t="n">
-        <v>6.389145811345963</v>
+        <v>6.374430062951863</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.284798859780507</v>
+        <v>-8.360721123959676</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.222734179621345</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.28702100902239</v>
+        <v>-11.22132383336261</v>
       </c>
       <c r="F61" t="n">
-        <v>6.229891039579207</v>
+        <v>6.214677783677121</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.748122365046351</v>
+        <v>-8.832541533769799</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.348324911764538</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.29166877653121</v>
+        <v>-11.2090825302056</v>
       </c>
       <c r="F62" t="n">
-        <v>6.186136563482159</v>
+        <v>6.158564173697483</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.950005674865766</v>
+        <v>-9.029004630212741</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.452194533817022</v>
       </c>
       <c r="E63" t="n">
-        <v>-10.95016914920762</v>
+        <v>-10.87964091379925</v>
       </c>
       <c r="F63" t="n">
-        <v>6.461310584609557</v>
+        <v>6.430360380691717</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.973715835312133</v>
+        <v>-9.038771488132669</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.533148181611816</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.77288627642781</v>
+        <v>-10.7207658188149</v>
       </c>
       <c r="F64" t="n">
-        <v>6.310146855998988</v>
+        <v>6.275949760976399</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.177746282797591</v>
+        <v>-9.254166054484745</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.595457162818592</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.8335952847049</v>
+        <v>-10.78898980892314</v>
       </c>
       <c r="F65" t="n">
-        <v>6.272990900534169</v>
+        <v>6.236987067719423</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.248824394925322</v>
+        <v>-9.330533456960534</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.637986333756834</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.55753098698426</v>
+        <v>-10.5112627887416</v>
       </c>
       <c r="F66" t="n">
-        <v>6.143167625555614</v>
+        <v>6.116564066181226</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.59066442212279</v>
+        <v>-9.667895916586131</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.664799019534451</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.80182026570803</v>
+        <v>-10.76423226424943</v>
       </c>
       <c r="F67" t="n">
-        <v>5.885746767081596</v>
+        <v>5.850397549408935</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.639027388820125</v>
+        <v>-9.719662882022316</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.676500768883106</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.89680492282475</v>
+        <v>-10.85119133972418</v>
       </c>
       <c r="F68" t="n">
-        <v>5.856681854772964</v>
+        <v>5.826543373631311</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.472454019764845</v>
+        <v>-9.552592005459051</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.676447046477861</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.69213295250005</v>
+        <v>-10.64416275488796</v>
       </c>
       <c r="F69" t="n">
-        <v>5.894544794591235</v>
+        <v>5.883966213895121</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.525294554034051</v>
+        <v>-9.625620870710199</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.669153518628982</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.93005937204273</v>
+        <v>-10.8846159888791</v>
       </c>
       <c r="F70" t="n">
-        <v>5.641549134477721</v>
+        <v>5.605414378634557</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.574351412781999</v>
+        <v>-9.662462610906815</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.65611475240295</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.91441407014687</v>
+        <v>-10.86889213316619</v>
       </c>
       <c r="F71" t="n">
-        <v>5.402326576953702</v>
+        <v>5.391512334806436</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.55941309523959</v>
+        <v>-9.654738152230196</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.645947822006028</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.9894460577328</v>
+        <v>-10.95266977905039</v>
       </c>
       <c r="F72" t="n">
-        <v>5.566975377491249</v>
+        <v>5.546263354395639</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.784666165631487</v>
+        <v>-9.88300245227569</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.640284238668255</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.42085052867052</v>
+        <v>-11.38495143427851</v>
       </c>
       <c r="F73" t="n">
-        <v>5.651237438580599</v>
+        <v>5.621151326650311</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.588818407422107</v>
+        <v>-9.700888519747281</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.648035211808502</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.53597114755781</v>
+        <v>-11.48760818086048</v>
       </c>
       <c r="F74" t="n">
-        <v>5.66998561624995</v>
+        <v>5.656814759591174</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.63079233033268</v>
+        <v>-9.734836861015877</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.670372242450988</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.04404414393668</v>
+        <v>-12.00068243692488</v>
       </c>
       <c r="F75" t="n">
-        <v>5.597558996929521</v>
+        <v>5.574673651562184</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.737717167641057</v>
+        <v>-9.842167559712347</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.712644547891481</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.0254137969929</v>
+        <v>-11.994633793012</v>
       </c>
       <c r="F76" t="n">
-        <v>5.492742020378663</v>
+        <v>5.466295568638376</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.745611826254617</v>
+        <v>-9.843463697693679</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.775383214271642</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.66434436027482</v>
+        <v>-12.62746334316968</v>
       </c>
       <c r="F77" t="n">
-        <v>5.492742020378663</v>
+        <v>5.474020027314994</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.529130598766677</v>
+        <v>-9.638556065917824</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.855163215283027</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.35656059612256</v>
+        <v>-13.31890713314976</v>
       </c>
       <c r="F78" t="n">
-        <v>5.566320762349164</v>
+        <v>5.5597746109283</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.98477883121339</v>
+        <v>-9.093981729216228</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.948917381797604</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.68536068968967</v>
+        <v>-13.65357257838996</v>
       </c>
       <c r="F79" t="n">
-        <v>5.757311276204263</v>
+        <v>5.762495828129587</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.120493642470723</v>
+        <v>-9.229683448170718</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.04482813513216</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.26417139832238</v>
+        <v>-14.23075984147029</v>
       </c>
       <c r="F80" t="n">
-        <v>5.785773942582176</v>
+        <v>5.798866245423902</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.580593257883624</v>
+        <v>-8.689167725350059</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.135398403493875</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.85112551932264</v>
+        <v>-14.82783431256721</v>
       </c>
       <c r="F81" t="n">
-        <v>5.837698015652461</v>
+        <v>5.843013490606202</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.462147194074527</v>
+        <v>-8.583159349240601</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.20518958342245</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.70457346466624</v>
+        <v>-15.67963262775275</v>
       </c>
       <c r="F82" t="n">
-        <v>5.822458575144692</v>
+        <v>5.814498455016922</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.355156895251943</v>
+        <v>-8.482112955908161</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.244795129360654</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.74932613913314</v>
+        <v>-16.73878683534555</v>
       </c>
       <c r="F83" t="n">
-        <v>5.993051281172383</v>
+        <v>5.996271987671447</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.189316695155798</v>
+        <v>-8.313510279912412</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.240649249237849</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.73903877245342</v>
+        <v>-17.75573145857662</v>
       </c>
       <c r="F84" t="n">
-        <v>5.922195738192961</v>
+        <v>5.929501243178644</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.822208523473799</v>
+        <v>-7.93113648311696</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.18393914882278</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.59743560827119</v>
+        <v>-18.59985768429691</v>
       </c>
       <c r="F85" t="n">
-        <v>6.188309885753885</v>
+        <v>6.213996983929352</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.631427486464167</v>
+        <v>-7.74302627588704</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.067227011651831</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.86581790757761</v>
+        <v>-19.85992637129883</v>
       </c>
       <c r="F86" t="n">
-        <v>6.066970423016768</v>
+        <v>6.095537827817414</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.606787772516038</v>
+        <v>-7.712337918026034</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.885700274018531</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.92599331479206</v>
+        <v>-20.92444842305674</v>
       </c>
       <c r="F87" t="n">
-        <v>6.116721173815327</v>
+        <v>6.141936949088492</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.147614527251021</v>
+        <v>-7.257367301973211</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.640267115036933</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.3607395063083</v>
+        <v>-22.38116349874139</v>
       </c>
       <c r="F88" t="n">
-        <v>6.391869010337042</v>
+        <v>6.406584758731142</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.201489353444725</v>
+        <v>-7.303491484884613</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.332410581163226</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.93954030599204</v>
+        <v>-23.94866564107273</v>
       </c>
       <c r="F89" t="n">
-        <v>6.253116784820429</v>
+        <v>6.281396158958557</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.875556474199954</v>
+        <v>-6.964636502735059</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.970700230431131</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.30330003150044</v>
+        <v>-25.3232134241227</v>
       </c>
       <c r="F90" t="n">
-        <v>6.492941588275167</v>
+        <v>6.507238382978332</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.25083424285519</v>
+        <v>-7.347808930003855</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.561496048896692</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.03933938831332</v>
+        <v>-27.06052273431123</v>
       </c>
       <c r="F91" t="n">
-        <v>6.631170121678111</v>
+        <v>6.674374721055807</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.789945905917907</v>
+        <v>-6.86255581747812</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.118459199208683</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.02744485173794</v>
+        <v>-29.05458519552884</v>
       </c>
       <c r="F92" t="n">
-        <v>6.40399248276848</v>
+        <v>6.451124772998694</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.045756411142393</v>
+        <v>-7.126143150590591</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.651706879265229</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.89384426794589</v>
+        <v>-30.9300575776061</v>
       </c>
       <c r="F93" t="n">
-        <v>6.391528610463157</v>
+        <v>6.434837948263587</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.432696238275728</v>
+        <v>-6.512834223969933</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.175285089119192</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.91680144153519</v>
+        <v>-32.96828037630885</v>
       </c>
       <c r="F94" t="n">
-        <v>6.388412642386826</v>
+        <v>6.428291796842724</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.719548593537946</v>
+        <v>-6.785389784528987</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.7000241364093249</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.19530727429215</v>
+        <v>-35.24253121064225</v>
       </c>
       <c r="F95" t="n">
-        <v>6.307266549373808</v>
+        <v>6.336881338401793</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.182751084724336</v>
+        <v>-6.239231279183542</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2332541838708054</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.60016692177459</v>
+        <v>-37.65101742601186</v>
       </c>
       <c r="F96" t="n">
-        <v>6.117637635014248</v>
+        <v>6.164508079187627</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.148331420553438</v>
+        <v>-6.209485567127141</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.2155715838579249</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.62317646457527</v>
+        <v>-39.68315230389322</v>
       </c>
       <c r="F97" t="n">
-        <v>6.012035120292885</v>
+        <v>6.041204771024251</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.748204461104605</v>
+        <v>-5.795428397454712</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.6509386693126129</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.05075125748812</v>
+        <v>-42.11365977264261</v>
       </c>
       <c r="F98" t="n">
-        <v>5.931124688731019</v>
+        <v>5.96830682880152</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.935987360763483</v>
+        <v>-5.988343479827545</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.063453032648782</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.32303824639525</v>
+        <v>-44.35387061958752</v>
       </c>
       <c r="F99" t="n">
-        <v>5.78239612844901</v>
+        <v>5.822170544482174</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.673303396547091</v>
+        <v>-5.71061645964601</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.46975778913864</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.46535794499257</v>
+        <v>-46.49273395023462</v>
       </c>
       <c r="F100" t="n">
-        <v>5.517041334452906</v>
+        <v>5.547075077171826</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.746292984889714</v>
+        <v>-5.794289367107481</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.851340659665709</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.92470775690229</v>
+        <v>-48.97723407590329</v>
       </c>
       <c r="F101" t="n">
-        <v>5.447887790842909</v>
+        <v>5.472867904664922</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.801594872093164</v>
+        <v>-5.851607468948559</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.245410730592463</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.30364464475812</v>
+        <v>-51.33396641813956</v>
       </c>
       <c r="F102" t="n">
-        <v>4.831345065420345</v>
+        <v>4.862085792492718</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.487039204017854</v>
+        <v>-5.522231314056413</v>
       </c>
     </row>
   </sheetData>
